--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/agile-itsm/state-machine-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7571A9AD-3930-5143-A4D7-FDA59CDBF1C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId4"/>
-    <sheet name="state_machine_lookup_type" sheetId="2" r:id="rId5"/>
-    <sheet name="state_machine_lookup_value" sheetId="3" r:id="rId6"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="state_machine_lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="state_machine_lookup_value" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>state_machine_lookup_type</t>
   </si>
@@ -156,9 +165,6 @@
     <t>后置功能</t>
   </si>
   <si>
-    <t>node_default</t>
-  </si>
-  <si>
     <t>默认初始化节点</t>
   </si>
   <si>
@@ -217,51 +223,48 @@
   </si>
   <si>
     <t>已完成状态类别颜色</t>
+  </si>
+  <si>
+    <t>node_init</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DejaVu Serif"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,63 +300,109 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,7 +604,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -574,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,9 +874,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -844,7 +899,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -863,7 +918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,9 +1165,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1126,7 +1187,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1145,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,96 +1457,99 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1493,8 +1557,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -1503,24 +1568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
     <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1529,7 +1591,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1538,7 +1600,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1547,7 +1609,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1556,7 +1618,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1565,7 +1627,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1574,116 +1636,117 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -1692,25 +1755,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="9" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="6" customWidth="1"/>
     <col min="9" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1720,7 +1783,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1730,7 +1793,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1740,7 +1803,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1750,7 +1813,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1760,7 +1823,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1770,389 +1833,390 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="20.95" customHeight="1">
+    <row r="16" spans="1:8" ht="21" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="7">
+      <c r="E16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="20.95" customHeight="1">
+    <row r="17" spans="1:8" ht="21" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="8">
+      <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="20.95" customHeight="1">
+    <row r="18" spans="1:8" ht="21" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="8">
+      <c r="E18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="22.6" customHeight="1">
+    <row r="19" spans="1:8" ht="22.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="8">
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s" s="8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="22.6" customHeight="1">
+      <c r="H19" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="8">
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" ht="20.95" customHeight="1">
+      <c r="H20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="8">
+      <c r="E21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F21" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" ht="22.6" customHeight="1">
+      <c r="H21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="8">
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" ht="22.6" customHeight="1">
+      <c r="H22" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="8">
+      <c r="E23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="H23" t="s" s="8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" ht="20.95" customHeight="1">
+      <c r="H23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="8">
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F24" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" ht="20.95" customHeight="1">
+      <c r="H24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" t="s" s="8">
+      <c r="E25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F25" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s" s="5">
+      <c r="H25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="20.95" customHeight="1">
+    </row>
+    <row r="26" spans="1:8" ht="21" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" t="s" s="8">
+      <c r="E26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s" s="5">
+      <c r="H26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H26" t="s" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" ht="20.95" customHeight="1">
+    </row>
+    <row r="27" spans="1:8" ht="21" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" t="s" s="8">
+      <c r="E27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s" s="5">
+      <c r="H27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H27" t="s" s="5">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/agile-itsm/state-machine-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7571A9AD-3930-5143-A4D7-FDA59CDBF1C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41E707DC-6A7F-744F-8984-B4CE9E20C66C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>state_machine_lookup_type</t>
   </si>
@@ -226,6 +226,43 @@
   </si>
   <si>
     <t>node_init</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_strategy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition Strategy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件策略</t>
+    <rPh sb="0" eb="2">
+      <t>t j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_one</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足所有条件</t>
+    <rPh sb="0" eb="2">
+      <t>m zu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足条件之一</t>
+    <rPh sb="0" eb="1">
+      <t>m zu</t>
+    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -264,6 +301,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -302,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -316,6 +360,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1569,9 +1614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV13"/>
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1582,7 +1629,7 @@
     <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1">
+    <row r="1" spans="1:256" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1591,7 +1638,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
+    <row r="2" spans="1:256" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1600,7 +1647,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1">
+    <row r="3" spans="1:256" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1609,7 +1656,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1">
+    <row r="4" spans="1:256" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1618,7 +1665,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1">
+    <row r="5" spans="1:256" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1627,7 +1674,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1">
+    <row r="6" spans="1:256" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1636,7 +1683,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1">
+    <row r="7" spans="1:256" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1653,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1">
+    <row r="8" spans="1:256" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1668,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1">
+    <row r="9" spans="1:256" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1683,7 +1730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1">
+    <row r="10" spans="1:256" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1698,7 +1745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1">
+    <row r="11" spans="1:256" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1713,7 +1760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1">
+    <row r="12" spans="1:256" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1728,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1">
+    <row r="13" spans="1:256" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1741,6 +1788,270 @@
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="6"/>
+      <c r="BU13" s="6"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="6"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="6"/>
+      <c r="BZ13" s="6"/>
+      <c r="CA13" s="6"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="6"/>
+      <c r="CF13" s="6"/>
+      <c r="CG13" s="6"/>
+      <c r="CH13" s="6"/>
+      <c r="CI13" s="6"/>
+      <c r="CJ13" s="6"/>
+      <c r="CK13" s="6"/>
+      <c r="CL13" s="6"/>
+      <c r="CM13" s="6"/>
+      <c r="CN13" s="6"/>
+      <c r="CO13" s="6"/>
+      <c r="CP13" s="6"/>
+      <c r="CQ13" s="6"/>
+      <c r="CR13" s="6"/>
+      <c r="CS13" s="6"/>
+      <c r="CT13" s="6"/>
+      <c r="CU13" s="6"/>
+      <c r="CV13" s="6"/>
+      <c r="CW13" s="6"/>
+      <c r="CX13" s="6"/>
+      <c r="CY13" s="6"/>
+      <c r="CZ13" s="6"/>
+      <c r="DA13" s="6"/>
+      <c r="DB13" s="6"/>
+      <c r="DC13" s="6"/>
+      <c r="DD13" s="6"/>
+      <c r="DE13" s="6"/>
+      <c r="DF13" s="6"/>
+      <c r="DG13" s="6"/>
+      <c r="DH13" s="6"/>
+      <c r="DI13" s="6"/>
+      <c r="DJ13" s="6"/>
+      <c r="DK13" s="6"/>
+      <c r="DL13" s="6"/>
+      <c r="DM13" s="6"/>
+      <c r="DN13" s="6"/>
+      <c r="DO13" s="6"/>
+      <c r="DP13" s="6"/>
+      <c r="DQ13" s="6"/>
+      <c r="DR13" s="6"/>
+      <c r="DS13" s="6"/>
+      <c r="DT13" s="6"/>
+      <c r="DU13" s="6"/>
+      <c r="DV13" s="6"/>
+      <c r="DW13" s="6"/>
+      <c r="DX13" s="6"/>
+      <c r="DY13" s="6"/>
+      <c r="DZ13" s="6"/>
+      <c r="EA13" s="6"/>
+      <c r="EB13" s="6"/>
+      <c r="EC13" s="6"/>
+      <c r="ED13" s="6"/>
+      <c r="EE13" s="6"/>
+      <c r="EF13" s="6"/>
+      <c r="EG13" s="6"/>
+      <c r="EH13" s="6"/>
+      <c r="EI13" s="6"/>
+      <c r="EJ13" s="6"/>
+      <c r="EK13" s="6"/>
+      <c r="EL13" s="6"/>
+      <c r="EM13" s="6"/>
+      <c r="EN13" s="6"/>
+      <c r="EO13" s="6"/>
+      <c r="EP13" s="6"/>
+      <c r="EQ13" s="6"/>
+      <c r="ER13" s="6"/>
+      <c r="ES13" s="6"/>
+      <c r="ET13" s="6"/>
+      <c r="EU13" s="6"/>
+      <c r="EV13" s="6"/>
+      <c r="EW13" s="6"/>
+      <c r="EX13" s="6"/>
+      <c r="EY13" s="6"/>
+      <c r="EZ13" s="6"/>
+      <c r="FA13" s="6"/>
+      <c r="FB13" s="6"/>
+      <c r="FC13" s="6"/>
+      <c r="FD13" s="6"/>
+      <c r="FE13" s="6"/>
+      <c r="FF13" s="6"/>
+      <c r="FG13" s="6"/>
+      <c r="FH13" s="6"/>
+      <c r="FI13" s="6"/>
+      <c r="FJ13" s="6"/>
+      <c r="FK13" s="6"/>
+      <c r="FL13" s="6"/>
+      <c r="FM13" s="6"/>
+      <c r="FN13" s="6"/>
+      <c r="FO13" s="6"/>
+      <c r="FP13" s="6"/>
+      <c r="FQ13" s="6"/>
+      <c r="FR13" s="6"/>
+      <c r="FS13" s="6"/>
+      <c r="FT13" s="6"/>
+      <c r="FU13" s="6"/>
+      <c r="FV13" s="6"/>
+      <c r="FW13" s="6"/>
+      <c r="FX13" s="6"/>
+      <c r="FY13" s="6"/>
+      <c r="FZ13" s="6"/>
+      <c r="GA13" s="6"/>
+      <c r="GB13" s="6"/>
+      <c r="GC13" s="6"/>
+      <c r="GD13" s="6"/>
+      <c r="GE13" s="6"/>
+      <c r="GF13" s="6"/>
+      <c r="GG13" s="6"/>
+      <c r="GH13" s="6"/>
+      <c r="GI13" s="6"/>
+      <c r="GJ13" s="6"/>
+      <c r="GK13" s="6"/>
+      <c r="GL13" s="6"/>
+      <c r="GM13" s="6"/>
+      <c r="GN13" s="6"/>
+      <c r="GO13" s="6"/>
+      <c r="GP13" s="6"/>
+      <c r="GQ13" s="6"/>
+      <c r="GR13" s="6"/>
+      <c r="GS13" s="6"/>
+      <c r="GT13" s="6"/>
+      <c r="GU13" s="6"/>
+      <c r="GV13" s="6"/>
+      <c r="GW13" s="6"/>
+      <c r="GX13" s="6"/>
+      <c r="GY13" s="6"/>
+      <c r="GZ13" s="6"/>
+      <c r="HA13" s="6"/>
+      <c r="HB13" s="6"/>
+      <c r="HC13" s="6"/>
+      <c r="HD13" s="6"/>
+      <c r="HE13" s="6"/>
+      <c r="HF13" s="6"/>
+      <c r="HG13" s="6"/>
+      <c r="HH13" s="6"/>
+      <c r="HI13" s="6"/>
+      <c r="HJ13" s="6"/>
+      <c r="HK13" s="6"/>
+      <c r="HL13" s="6"/>
+      <c r="HM13" s="6"/>
+      <c r="HN13" s="6"/>
+      <c r="HO13" s="6"/>
+      <c r="HP13" s="6"/>
+      <c r="HQ13" s="6"/>
+      <c r="HR13" s="6"/>
+      <c r="HS13" s="6"/>
+      <c r="HT13" s="6"/>
+      <c r="HU13" s="6"/>
+      <c r="HV13" s="6"/>
+      <c r="HW13" s="6"/>
+      <c r="HX13" s="6"/>
+      <c r="HY13" s="6"/>
+      <c r="HZ13" s="6"/>
+      <c r="IA13" s="6"/>
+      <c r="IB13" s="6"/>
+      <c r="IC13" s="6"/>
+      <c r="ID13" s="6"/>
+      <c r="IE13" s="6"/>
+      <c r="IF13" s="6"/>
+      <c r="IG13" s="6"/>
+      <c r="IH13" s="6"/>
+      <c r="II13" s="6"/>
+      <c r="IJ13" s="6"/>
+      <c r="IK13" s="6"/>
+      <c r="IL13" s="6"/>
+      <c r="IM13" s="6"/>
+      <c r="IN13" s="6"/>
+      <c r="IO13" s="6"/>
+      <c r="IP13" s="6"/>
+      <c r="IQ13" s="6"/>
+      <c r="IR13" s="6"/>
+      <c r="IS13" s="6"/>
+      <c r="IT13" s="6"/>
+      <c r="IU13" s="6"/>
+      <c r="IV13" s="6"/>
+    </row>
+    <row r="14" spans="1:256" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1756,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2213,6 +2524,42 @@
         <v>66</v>
       </c>
     </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>

--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/agile-itsm/state-machine-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41E707DC-6A7F-744F-8984-B4CE9E20C66C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C7819DC-63CF-3547-8BEF-697CBF7F1D1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -99,25 +99,13 @@
     <t>type_code</t>
   </si>
   <si>
-    <t>status_todo</t>
-  </si>
-  <si>
     <t>待处理</t>
   </si>
   <si>
-    <t>status_doing</t>
-  </si>
-  <si>
     <t>处理中</t>
   </si>
   <si>
-    <t>status_done</t>
-  </si>
-  <si>
     <t>已完成</t>
-  </si>
-  <si>
-    <t>status_none</t>
   </si>
   <si>
     <t>无类型</t>
@@ -263,6 +251,22 @@
     <rPh sb="0" eb="1">
       <t>m zu</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2045,13 +2049,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2069,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2169,17 +2173,17 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1">
@@ -2187,17 +2191,17 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" customHeight="1">
@@ -2205,17 +2209,17 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
+      <c r="E10" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1">
@@ -2223,17 +2227,17 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
+      <c r="E11" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1">
@@ -2242,16 +2246,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1">
@@ -2260,16 +2264,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
@@ -2278,16 +2282,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1">
@@ -2296,16 +2300,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1">
@@ -2314,16 +2318,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -2332,16 +2336,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -2350,16 +2354,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1">
@@ -2368,16 +2372,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1">
@@ -2386,16 +2390,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -2404,16 +2408,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1">
@@ -2422,16 +2426,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1">
@@ -2440,16 +2444,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -2458,16 +2462,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -2476,16 +2480,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -2494,16 +2498,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -2512,16 +2516,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -2530,16 +2534,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -2548,16 +2552,16 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
